--- a/a2_Unseen_Dataset.xlsx
+++ b/a2_Unseen_Dataset.xlsx
@@ -2657,7 +2657,17 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="11" width="8.71"/>
+    <col customWidth="1" min="1" max="1" width="18.43"/>
+    <col customWidth="1" min="2" max="2" width="16.0"/>
+    <col customWidth="1" min="3" max="3" width="8.71"/>
+    <col customWidth="1" min="4" max="4" width="11.14"/>
+    <col customWidth="1" min="5" max="5" width="31.57"/>
+    <col customWidth="1" min="6" max="6" width="10.0"/>
+    <col customWidth="1" min="7" max="7" width="12.71"/>
+    <col customWidth="1" min="8" max="8" width="8.86"/>
+    <col customWidth="1" min="9" max="9" width="11.14"/>
+    <col customWidth="1" min="10" max="10" width="26.43"/>
+    <col customWidth="1" min="11" max="11" width="6.43"/>
   </cols>
   <sheetData>
     <row r="1">
